--- a/0_input/2_tickers_narrowed_columns.xlsx
+++ b/0_input/2_tickers_narrowed_columns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,6 +678,106 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5y Average Return</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Average for Category</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Holdings Turnover</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Last Cap Gain</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Last Dividend</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Morningstar Rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Morningstar Risk Rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sustainability Rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>YTD Return</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
